--- a/Output/instrument_data_ogdi_years/mics_2013-2022.xlsx
+++ b/Output/instrument_data_ogdi_years/mics_2013-2022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="173">
   <si>
     <t>country</t>
   </si>
@@ -441,6 +441,36 @@
   </si>
   <si>
     <t>TGO</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
   <si>
     <t>Completed</t>
@@ -587,26 +617,26 @@
       <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="n">
-        <v>2013.0</v>
+      <c r="C2" t="s">
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -616,26 +646,26 @@
       <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="n">
-        <v>2013.0</v>
+      <c r="C3" t="s">
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
@@ -645,26 +675,26 @@
       <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" t="n">
-        <v>2013.0</v>
+      <c r="C4" t="s">
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -674,26 +704,26 @@
       <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="n">
-        <v>2014.0</v>
+      <c r="C5" t="s">
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
@@ -703,26 +733,26 @@
       <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="n">
-        <v>2016.0</v>
+      <c r="C6" t="s">
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
@@ -732,26 +762,26 @@
       <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="n">
-        <v>2014.0</v>
+      <c r="C7" t="s">
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -761,26 +791,26 @@
       <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" t="n">
-        <v>2014.0</v>
+      <c r="C8" t="s">
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +820,26 @@
       <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="n">
-        <v>2014.0</v>
+      <c r="C9" t="s">
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
@@ -819,26 +849,26 @@
       <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" t="n">
-        <v>2014.0</v>
+      <c r="C10" t="s">
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -848,26 +878,26 @@
       <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" t="n">
-        <v>2015.0</v>
+      <c r="C11" t="s">
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -877,26 +907,26 @@
       <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" t="n">
-        <v>2014.0</v>
+      <c r="C12" t="s">
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
@@ -906,26 +936,26 @@
       <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="n">
-        <v>2014.0</v>
+      <c r="C13" t="s">
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
@@ -935,26 +965,26 @@
       <c r="B14" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="n">
-        <v>2013.0</v>
+      <c r="C14" t="s">
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
@@ -964,26 +994,26 @@
       <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="n">
-        <v>2014.0</v>
+      <c r="C15" t="s">
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H15" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
@@ -993,26 +1023,26 @@
       <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="n">
-        <v>2016.0</v>
+      <c r="C16" t="s">
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
@@ -1022,26 +1052,26 @@
       <c r="B17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="n">
-        <v>2016.0</v>
+      <c r="C17" t="s">
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -1051,26 +1081,26 @@
       <c r="B18" t="s">
         <v>91</v>
       </c>
-      <c r="C18" t="n">
-        <v>2014.0</v>
+      <c r="C18" t="s">
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H18" t="s">
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -1080,26 +1110,26 @@
       <c r="B19" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="n">
-        <v>2014.0</v>
+      <c r="C19" t="s">
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
@@ -1109,26 +1139,26 @@
       <c r="B20" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="n">
-        <v>2014.0</v>
+      <c r="C20" t="s">
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H20" t="s">
         <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
@@ -1138,26 +1168,26 @@
       <c r="B21" t="s">
         <v>94</v>
       </c>
-      <c r="C21" t="n">
-        <v>2014.0</v>
+      <c r="C21" t="s">
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H21" t="s">
         <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
@@ -1167,26 +1197,26 @@
       <c r="B22" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="n">
-        <v>2015.0</v>
+      <c r="C22" t="s">
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
         <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
@@ -1196,26 +1226,26 @@
       <c r="B23" t="s">
         <v>96</v>
       </c>
-      <c r="C23" t="n">
-        <v>2013.0</v>
+      <c r="C23" t="s">
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
@@ -1225,26 +1255,26 @@
       <c r="B24" t="s">
         <v>97</v>
       </c>
-      <c r="C24" t="n">
-        <v>2016.0</v>
+      <c r="C24" t="s">
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25">
@@ -1254,26 +1284,26 @@
       <c r="B25" t="s">
         <v>98</v>
       </c>
-      <c r="C25" t="n">
-        <v>2014.0</v>
+      <c r="C25" t="s">
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H25" t="s">
         <v>31</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
@@ -1283,26 +1313,26 @@
       <c r="B26" t="s">
         <v>99</v>
       </c>
-      <c r="C26" t="n">
-        <v>2014.0</v>
+      <c r="C26" t="s">
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I26" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
@@ -1312,26 +1342,26 @@
       <c r="B27" t="s">
         <v>100</v>
       </c>
-      <c r="C27" t="n">
-        <v>2014.0</v>
+      <c r="C27" t="s">
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H27" t="s">
         <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28">
@@ -1341,26 +1371,26 @@
       <c r="B28" t="s">
         <v>101</v>
       </c>
-      <c r="C28" t="n">
-        <v>2013.0</v>
+      <c r="C28" t="s">
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29">
@@ -1370,26 +1400,26 @@
       <c r="B29" t="s">
         <v>102</v>
       </c>
-      <c r="C29" t="n">
-        <v>2014.0</v>
+      <c r="C29" t="s">
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H29" t="s">
         <v>35</v>
       </c>
       <c r="I29" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30">
@@ -1399,26 +1429,26 @@
       <c r="B30" t="s">
         <v>103</v>
       </c>
-      <c r="C30" t="n">
-        <v>2014.0</v>
+      <c r="C30" t="s">
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
       </c>
       <c r="I30" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31">
@@ -1428,26 +1458,26 @@
       <c r="B31" t="s">
         <v>104</v>
       </c>
-      <c r="C31" t="n">
-        <v>2014.0</v>
+      <c r="C31" t="s">
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G31" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H31" t="s">
         <v>37</v>
       </c>
       <c r="I31" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
@@ -1457,26 +1487,26 @@
       <c r="B32" t="s">
         <v>105</v>
       </c>
-      <c r="C32" t="n">
-        <v>2015.0</v>
+      <c r="C32" t="s">
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G32" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H32" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
@@ -1486,26 +1516,26 @@
       <c r="B33" t="s">
         <v>106</v>
       </c>
-      <c r="C33" t="n">
-        <v>2016.0</v>
+      <c r="C33" t="s">
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H33" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34">
@@ -1515,26 +1545,26 @@
       <c r="B34" t="s">
         <v>107</v>
       </c>
-      <c r="C34" t="n">
-        <v>2014.0</v>
+      <c r="C34" t="s">
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G34" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H34" t="s">
         <v>40</v>
       </c>
       <c r="I34" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35">
@@ -1544,26 +1574,26 @@
       <c r="B35" t="s">
         <v>108</v>
       </c>
-      <c r="C35" t="n">
-        <v>2016.0</v>
+      <c r="C35" t="s">
+        <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H35" t="s">
         <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -1573,26 +1603,26 @@
       <c r="B36" t="s">
         <v>109</v>
       </c>
-      <c r="C36" t="n">
-        <v>2015.0</v>
+      <c r="C36" t="s">
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
       </c>
       <c r="I36" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37">
@@ -1602,26 +1632,26 @@
       <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="C37" t="n">
-        <v>2015.0</v>
+      <c r="C37" t="s">
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38">
@@ -1631,26 +1661,26 @@
       <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" t="n">
-        <v>2017.0</v>
+      <c r="C38" t="s">
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G38" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H38" t="s">
         <v>44</v>
       </c>
       <c r="I38" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39">
@@ -1660,26 +1690,26 @@
       <c r="B39" t="s">
         <v>112</v>
       </c>
-      <c r="C39" t="n">
-        <v>2014.0</v>
+      <c r="C39" t="s">
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G39" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="I39" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40">
@@ -1689,26 +1719,26 @@
       <c r="B40" t="s">
         <v>113</v>
       </c>
-      <c r="C40" t="n">
-        <v>2021.0</v>
+      <c r="C40" t="s">
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41">
@@ -1718,26 +1748,26 @@
       <c r="B41" t="s">
         <v>114</v>
       </c>
-      <c r="C41" t="n">
-        <v>2019.0</v>
+      <c r="C41" t="s">
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G41" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H41" t="s">
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42">
@@ -1747,26 +1777,26 @@
       <c r="B42" t="s">
         <v>115</v>
       </c>
-      <c r="C42" t="n">
-        <v>2017.0</v>
+      <c r="C42" t="s">
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H42" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I42" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43">
@@ -1776,26 +1806,26 @@
       <c r="B43" t="s">
         <v>116</v>
       </c>
-      <c r="C43" t="n">
-        <v>2017.0</v>
+      <c r="C43" t="s">
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G43" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I43" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44">
@@ -1805,26 +1835,26 @@
       <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="C44" t="n">
-        <v>2018.0</v>
+      <c r="C44" t="s">
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H44" t="s">
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45">
@@ -1834,26 +1864,26 @@
       <c r="B45" t="s">
         <v>117</v>
       </c>
-      <c r="C45" t="n">
-        <v>2020.0</v>
+      <c r="C45" t="s">
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G45" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H45" t="s">
         <v>50</v>
       </c>
       <c r="I45" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46">
@@ -1863,26 +1893,26 @@
       <c r="B46" t="s">
         <v>76</v>
       </c>
-      <c r="C46" t="n">
-        <v>2019.0</v>
+      <c r="C46" t="s">
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G46" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H46" t="s">
         <v>9</v>
       </c>
       <c r="I46" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47">
@@ -1892,26 +1922,26 @@
       <c r="B47" t="s">
         <v>76</v>
       </c>
-      <c r="C47" t="n">
-        <v>2022.0</v>
+      <c r="C47" t="s">
+        <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G47" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H47" t="s">
         <v>9</v>
       </c>
       <c r="I47" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48">
@@ -1921,26 +1951,26 @@
       <c r="B48" t="s">
         <v>118</v>
       </c>
-      <c r="C48" t="n">
-        <v>2019.0</v>
+      <c r="C48" t="s">
+        <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E48" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G48" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H48" t="s">
         <v>51</v>
       </c>
       <c r="I48" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49">
@@ -1950,26 +1980,26 @@
       <c r="B49" t="s">
         <v>119</v>
       </c>
-      <c r="C49" t="n">
-        <v>2020.0</v>
+      <c r="C49" t="s">
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G49" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H49" t="s">
         <v>52</v>
       </c>
       <c r="I49" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50">
@@ -1979,26 +2009,26 @@
       <c r="B50" t="s">
         <v>80</v>
       </c>
-      <c r="C50" t="n">
-        <v>2021.0</v>
+      <c r="C50" t="s">
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G50" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I50" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51">
@@ -2008,26 +2038,26 @@
       <c r="B51" t="s">
         <v>120</v>
       </c>
-      <c r="C51" t="n">
-        <v>2022.0</v>
+      <c r="C51" t="s">
+        <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G51" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H51" t="s">
         <v>53</v>
       </c>
       <c r="I51" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52">
@@ -2037,26 +2067,26 @@
       <c r="B52" t="s">
         <v>81</v>
       </c>
-      <c r="C52" t="n">
-        <v>2022.0</v>
+      <c r="C52" t="s">
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G52" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53">
@@ -2066,26 +2096,26 @@
       <c r="B53" t="s">
         <v>121</v>
       </c>
-      <c r="C53" t="n">
-        <v>2018.0</v>
+      <c r="C53" t="s">
+        <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G53" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H53" t="s">
         <v>54</v>
       </c>
       <c r="I53" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54">
@@ -2095,26 +2125,26 @@
       <c r="B54" t="s">
         <v>122</v>
       </c>
-      <c r="C54" t="n">
-        <v>2018.0</v>
+      <c r="C54" t="s">
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G54" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H54" t="s">
         <v>55</v>
       </c>
       <c r="I54" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55">
@@ -2124,26 +2154,26 @@
       <c r="B55" t="s">
         <v>82</v>
       </c>
-      <c r="C55" t="n">
-        <v>2020.0</v>
+      <c r="C55" t="s">
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G55" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H55" t="s">
         <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56">
@@ -2153,26 +2183,26 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" t="n">
-        <v>2019.0</v>
+      <c r="C56" t="s">
+        <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G56" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H56" t="s">
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57">
@@ -2182,26 +2212,26 @@
       <c r="B57" t="s">
         <v>123</v>
       </c>
-      <c r="C57" t="n">
-        <v>2019.0</v>
+      <c r="C57" t="s">
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H57" t="s">
         <v>56</v>
       </c>
       <c r="I57" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58">
@@ -2211,26 +2241,26 @@
       <c r="B58" t="s">
         <v>124</v>
       </c>
-      <c r="C58" t="n">
-        <v>2018.0</v>
+      <c r="C58" t="s">
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G58" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H58" t="s">
         <v>57</v>
       </c>
       <c r="I58" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59">
@@ -2240,26 +2270,26 @@
       <c r="B59" t="s">
         <v>85</v>
       </c>
-      <c r="C59" t="n">
-        <v>2020.0</v>
+      <c r="C59" t="s">
+        <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F59" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G59" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H59" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I59" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60">
@@ -2269,26 +2299,26 @@
       <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="C60" t="n">
-        <v>2018.0</v>
+      <c r="C60" t="s">
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E60" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G60" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H60" t="s">
         <v>19</v>
       </c>
       <c r="I60" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -2298,26 +2328,26 @@
       <c r="B61" t="s">
         <v>87</v>
       </c>
-      <c r="C61" t="n">
-        <v>2018.0</v>
+      <c r="C61" t="s">
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G61" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H61" t="s">
         <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62">
@@ -2327,26 +2357,26 @@
       <c r="B62" t="s">
         <v>125</v>
       </c>
-      <c r="C62" t="n">
-        <v>2019.0</v>
+      <c r="C62" t="s">
+        <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G62" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H62" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I62" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63">
@@ -2356,26 +2386,26 @@
       <c r="B63" t="s">
         <v>88</v>
       </c>
-      <c r="C63" t="n">
-        <v>2019.0</v>
+      <c r="C63" t="s">
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F63" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G63" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H63" t="s">
         <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64">
@@ -2385,26 +2415,26 @@
       <c r="B64" t="s">
         <v>89</v>
       </c>
-      <c r="C64" t="n">
-        <v>2019.0</v>
+      <c r="C64" t="s">
+        <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G64" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H64" t="s">
         <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
@@ -2414,26 +2444,26 @@
       <c r="B65" t="s">
         <v>126</v>
       </c>
-      <c r="C65" t="n">
-        <v>2022.0</v>
+      <c r="C65" t="s">
+        <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G65" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H65" t="s">
         <v>59</v>
       </c>
       <c r="I65" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66">
@@ -2443,26 +2473,26 @@
       <c r="B66" t="s">
         <v>127</v>
       </c>
-      <c r="C66" t="n">
-        <v>2020.0</v>
+      <c r="C66" t="s">
+        <v>151</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G66" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H66" t="s">
         <v>60</v>
       </c>
       <c r="I66" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67">
@@ -2472,26 +2502,26 @@
       <c r="B67" t="s">
         <v>128</v>
       </c>
-      <c r="C67" t="n">
-        <v>2018.0</v>
+      <c r="C67" t="s">
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F67" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H67" t="s">
         <v>61</v>
       </c>
       <c r="I67" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68">
@@ -2501,26 +2531,26 @@
       <c r="B68" t="s">
         <v>91</v>
       </c>
-      <c r="C68" t="n">
-        <v>2019.0</v>
+      <c r="C68" t="s">
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F68" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H68" t="s">
         <v>24</v>
       </c>
       <c r="I68" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69">
@@ -2530,26 +2560,26 @@
       <c r="B69" t="s">
         <v>92</v>
       </c>
-      <c r="C69" t="n">
-        <v>2019.0</v>
+      <c r="C69" t="s">
+        <v>149</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F69" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G69" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H69" t="s">
         <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70">
@@ -2559,26 +2589,26 @@
       <c r="B70" t="s">
         <v>94</v>
       </c>
-      <c r="C70" t="n">
-        <v>2020.0</v>
+      <c r="C70" t="s">
+        <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F70" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G70" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H70" t="s">
         <v>27</v>
       </c>
       <c r="I70" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71">
@@ -2588,26 +2618,26 @@
       <c r="B71" t="s">
         <v>129</v>
       </c>
-      <c r="C71" t="n">
-        <v>2019.0</v>
+      <c r="C71" t="s">
+        <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F71" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G71" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H71" t="s">
         <v>62</v>
       </c>
       <c r="I71" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72">
@@ -2617,26 +2647,26 @@
       <c r="B72" t="s">
         <v>130</v>
       </c>
-      <c r="C72" t="n">
-        <v>2022.0</v>
+      <c r="C72" t="s">
+        <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F72" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G72" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H72" t="s">
         <v>63</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73">
@@ -2646,26 +2676,26 @@
       <c r="B73" t="s">
         <v>131</v>
       </c>
-      <c r="C73" t="n">
-        <v>2018.0</v>
+      <c r="C73" t="s">
+        <v>150</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G73" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H73" t="s">
         <v>64</v>
       </c>
       <c r="I73" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
@@ -2675,26 +2705,26 @@
       <c r="B74" t="s">
         <v>132</v>
       </c>
-      <c r="C74" t="n">
-        <v>2022.0</v>
+      <c r="C74" t="s">
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G74" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H74" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I74" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75">
@@ -2704,26 +2734,26 @@
       <c r="B75" t="s">
         <v>133</v>
       </c>
-      <c r="C75" t="n">
-        <v>2020.0</v>
+      <c r="C75" t="s">
+        <v>151</v>
       </c>
       <c r="D75" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G75" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H75" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="I75" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76">
@@ -2733,26 +2763,26 @@
       <c r="B76" t="s">
         <v>78</v>
       </c>
-      <c r="C76" t="n">
-        <v>2019.0</v>
+      <c r="C76" t="s">
+        <v>149</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G76" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H76" t="s">
         <v>11</v>
       </c>
       <c r="I76" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77">
@@ -2762,26 +2792,26 @@
       <c r="B77" t="s">
         <v>134</v>
       </c>
-      <c r="C77" t="n">
-        <v>2018.0</v>
+      <c r="C77" t="s">
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G77" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H77" t="s">
         <v>67</v>
       </c>
       <c r="I77" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78">
@@ -2791,26 +2821,26 @@
       <c r="B78" t="s">
         <v>99</v>
       </c>
-      <c r="C78" t="n">
-        <v>2020.0</v>
+      <c r="C78" t="s">
+        <v>151</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G78" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H78" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I78" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79">
@@ -2820,26 +2850,26 @@
       <c r="B79" t="s">
         <v>135</v>
       </c>
-      <c r="C79" t="n">
-        <v>2018.0</v>
+      <c r="C79" t="s">
+        <v>150</v>
       </c>
       <c r="D79" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G79" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H79" t="s">
         <v>68</v>
       </c>
       <c r="I79" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80">
@@ -2849,26 +2879,26 @@
       <c r="B80" t="s">
         <v>101</v>
       </c>
-      <c r="C80" t="n">
-        <v>2019.0</v>
+      <c r="C80" t="s">
+        <v>149</v>
       </c>
       <c r="D80" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E80" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G80" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H80" t="s">
         <v>34</v>
       </c>
       <c r="I80" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81">
@@ -2878,26 +2908,26 @@
       <c r="B81" t="s">
         <v>102</v>
       </c>
-      <c r="C81" t="n">
-        <v>2019.0</v>
+      <c r="C81" t="s">
+        <v>149</v>
       </c>
       <c r="D81" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G81" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H81" t="s">
         <v>35</v>
       </c>
       <c r="I81" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82">
@@ -2907,26 +2937,26 @@
       <c r="B82" t="s">
         <v>103</v>
       </c>
-      <c r="C82" t="n">
-        <v>2021.0</v>
+      <c r="C82" t="s">
+        <v>148</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E82" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G82" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H82" t="s">
         <v>36</v>
       </c>
       <c r="I82" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83">
@@ -2936,26 +2966,26 @@
       <c r="B83" t="s">
         <v>136</v>
       </c>
-      <c r="C83" t="n">
-        <v>2019.0</v>
+      <c r="C83" t="s">
+        <v>149</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G83" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H83" t="s">
         <v>69</v>
       </c>
       <c r="I83" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84">
@@ -2965,26 +2995,26 @@
       <c r="B84" t="s">
         <v>137</v>
       </c>
-      <c r="C84" t="n">
-        <v>2019.0</v>
+      <c r="C84" t="s">
+        <v>149</v>
       </c>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F84" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G84" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H84" t="s">
         <v>70</v>
       </c>
       <c r="I84" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -2994,26 +3024,26 @@
       <c r="B85" t="s">
         <v>138</v>
       </c>
-      <c r="C85" t="n">
-        <v>2018.0</v>
+      <c r="C85" t="s">
+        <v>150</v>
       </c>
       <c r="D85" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E85" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G85" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H85" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="I85" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86">
@@ -3023,26 +3053,26 @@
       <c r="B86" t="s">
         <v>139</v>
       </c>
-      <c r="C86" t="n">
-        <v>2018.0</v>
+      <c r="C86" t="s">
+        <v>150</v>
       </c>
       <c r="D86" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E86" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F86" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G86" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H86" t="s">
         <v>72</v>
       </c>
       <c r="I86" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87">
@@ -3052,26 +3082,26 @@
       <c r="B87" t="s">
         <v>140</v>
       </c>
-      <c r="C87" t="n">
-        <v>2018.0</v>
+      <c r="C87" t="s">
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E87" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F87" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G87" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H87" t="s">
         <v>73</v>
       </c>
       <c r="I87" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88">
@@ -3081,26 +3111,26 @@
       <c r="B88" t="s">
         <v>107</v>
       </c>
-      <c r="C88" t="n">
-        <v>2019.0</v>
+      <c r="C88" t="s">
+        <v>149</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E88" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F88" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G88" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H88" t="s">
         <v>40</v>
       </c>
       <c r="I88" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89">
@@ -3110,26 +3140,26 @@
       <c r="B89" t="s">
         <v>111</v>
       </c>
-      <c r="C89" t="n">
-        <v>2021.0</v>
+      <c r="C89" t="s">
+        <v>148</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E89" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F89" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G89" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H89" t="s">
         <v>44</v>
       </c>
       <c r="I89" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90">
@@ -3139,26 +3169,26 @@
       <c r="B90" t="s">
         <v>112</v>
       </c>
-      <c r="C90" t="n">
-        <v>2019.0</v>
+      <c r="C90" t="s">
+        <v>149</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E90" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F90" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G90" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H90" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="I90" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91">
@@ -3168,26 +3198,26 @@
       <c r="B91" t="s">
         <v>141</v>
       </c>
-      <c r="C91" t="n">
-        <v>2017.0</v>
+      <c r="C91" t="s">
+        <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E91" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F91" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G91" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H91" t="s">
         <v>74</v>
       </c>
       <c r="I91" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92">
@@ -3197,26 +3227,26 @@
       <c r="B92" t="s">
         <v>142</v>
       </c>
-      <c r="C92" t="n">
-        <v>2017.0</v>
+      <c r="C92" t="s">
+        <v>147</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E92" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F92" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G92" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H92" t="s">
         <v>75</v>
       </c>
       <c r="I92" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
